--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-314208.7948612261</v>
+        <v>-316189.7114416509</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.06655359</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13593270.75993956</v>
+        <v>13601719.96485331</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>87.22540059871831</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>94.17336894639004</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>37.40475229733314</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>144.5425776078363</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>162.9855398043552</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>9.452075920964607</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>105.7316179494396</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>226.2483981557145</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>116.1394845889525</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>145.7585619433752</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>35.10850750580163</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.16301885440583</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>245.8703231759001</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560523</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>85.60367973263087</v>
       </c>
       <c r="C16" t="n">
-        <v>34.89479027215916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498019</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>62.51115925120681</v>
       </c>
       <c r="U19" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>243.6070818730767</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.334148296601165</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.5947476878505</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>91.94988401775348</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>176.8407062429506</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700711</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965558</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437447</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897933</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571514</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>0.9948884529503302</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298325</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700206</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>14.32148215340886</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539627</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663483</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.193879927013</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>1298.193879927013</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1298.193879927013</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>887.2079751374054</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>469.2441670355922</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>142.0494470715951</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="3">
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>513.8405610245972</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="C4" t="n">
-        <v>513.8405610245972</v>
+        <v>508.6979412980804</v>
       </c>
       <c r="D4" t="n">
-        <v>363.7239216122614</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E4" t="n">
-        <v>363.7239216122614</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.3464061283202</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2496.117797904436</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2496.117797904436</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2496.117797904436</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.054910560866</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1812.286255290752</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X5" t="n">
-        <v>1812.286255290752</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.14692331494</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.4036268380754</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C7" t="n">
-        <v>211.4036268380754</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>160.7425959107075</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>211.4036268380754</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>211.4036268380754</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.4036268380754</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1581.134716985073</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C8" t="n">
-        <v>1212.172200044661</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D8" t="n">
-        <v>853.9065014379107</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="E8" t="n">
-        <v>853.9065014379107</v>
+        <v>658.8617892343871</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>651.9162884851836</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1971.274048960885</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1581.134716985073</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298164</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0636002298164</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="D10" t="n">
-        <v>517.0636002298164</v>
+        <v>429.8656862282827</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0636002298164</v>
+        <v>281.9525926458896</v>
       </c>
       <c r="F10" t="n">
-        <v>370.173652731906</v>
+        <v>135.0626451479792</v>
       </c>
       <c r="G10" t="n">
-        <v>201.1738524702384</v>
+        <v>135.0626451479792</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>135.0626451479792</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.8933943850833</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C13" t="n">
-        <v>444.8933943850833</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>294.7767549727475</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
         <v>244.1070389581962</v>
@@ -5197,19 +5197,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>761.513759893174</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286134</v>
+        <v>472.0965898562134</v>
       </c>
       <c r="X13" t="n">
-        <v>665.6859735286134</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y13" t="n">
-        <v>444.8933943850833</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231263</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M15" t="n">
         <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.8019868198127</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>503.5547239186419</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186419</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362488</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>720.4504516500524</v>
+        <v>731.0291971045607</v>
       </c>
       <c r="X16" t="n">
-        <v>720.4504516500524</v>
+        <v>503.0396462065434</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.4504516500524</v>
+        <v>503.0396462065434</v>
       </c>
     </row>
     <row r="17">
@@ -5492,34 +5492,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207829</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,13 +5598,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1435.773685455673</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1146.645046669231</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>891.9605584633442</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>941.8533975675258</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>687.168909361639</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305956</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="C25" t="n">
-        <v>268.7602397026888</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="D25" t="n">
-        <v>268.7602397026888</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>234.1814830641753</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655735</v>
+        <v>933.2366688293932</v>
       </c>
       <c r="W25" t="n">
-        <v>665.685973528613</v>
+        <v>643.8194987924326</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305956</v>
+        <v>415.8299478944152</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305956</v>
+        <v>415.8299478944152</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6288,43 +6288,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>582.1916992613308</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.08876901822</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298183</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962216</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180914</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471204</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262963</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>982.3321745379599</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>727.647686332073</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6525,37 +6525,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.7225911205044</v>
+        <v>582.6866369260345</v>
       </c>
       <c r="C31" t="n">
-        <v>545.5472734739679</v>
+        <v>469.5113192794984</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430027</v>
+        <v>375.1555451485335</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430027</v>
+        <v>283.0033168475111</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264628</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727654</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1879.806887068009</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1711.782337138885</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1478.414563633815</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1279.490940709299</v>
       </c>
       <c r="W31" t="n">
-        <v>1121.87059014818</v>
+        <v>1045.834635953709</v>
       </c>
       <c r="X31" t="n">
-        <v>949.6419045315333</v>
+        <v>873.6059503370625</v>
       </c>
       <c r="Y31" t="n">
-        <v>784.6101906693738</v>
+        <v>708.5742364749033</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,7 +6871,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,16 +7108,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207832</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358149</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M39" t="n">
         <v>1514.038914395485</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7579,7 +7579,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670535</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208172</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.171224833397</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535634</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>566.017668389301</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549812</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051442</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279361</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609111</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155634</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498449</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>171.2966883299212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,10 +9972,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776707</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599076</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>96.27094379216334</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836053</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.267320147927876</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>94.22830044930643</v>
       </c>
       <c r="C16" t="n">
-        <v>132.3520308264687</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>159.0364018071824</v>
       </c>
       <c r="U19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>42.63027052550092</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>143.099814349968</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>13.31908067968558</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>194.2874683808239</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>75.2969370808774</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180124</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>141.7226649020957</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>216.9982595546254</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-2.131628207280301e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1187958.843295746</v>
+        <v>1187958.843295747</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1183868.984768212</v>
+        <v>1198500.273918331</v>
       </c>
     </row>
   </sheetData>
@@ -26314,10 +26314,10 @@
         <v>266838.5752058922</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>254168.8888295107</v>
@@ -26326,25 +26326,25 @@
         <v>254168.8888295108</v>
       </c>
       <c r="G2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="H2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="I2" t="n">
         <v>254168.8888295108</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744253</v>
+        <v>264434.3892744259</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058922</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925941</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284541</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086606</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755738</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230238</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649869</v>
+        <v>47468.16806649887</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362282</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362277</v>
+        <v>51722.33279362276</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362282</v>
+        <v>51722.33279362272</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002543</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-580479.159393888</v>
       </c>
       <c r="C6" t="n">
-        <v>9488.719820656523</v>
+        <v>9488.719820656581</v>
       </c>
       <c r="D6" t="n">
-        <v>9488.719820656377</v>
+        <v>9488.719820656581</v>
       </c>
       <c r="E6" t="n">
-        <v>-392282.0191484042</v>
+        <v>-392379.4782743764</v>
       </c>
       <c r="F6" t="n">
-        <v>132878.0173284918</v>
+        <v>132780.5582025197</v>
       </c>
       <c r="G6" t="n">
-        <v>132878.0173284918</v>
+        <v>132780.5582025197</v>
       </c>
       <c r="H6" t="n">
-        <v>132878.0173284916</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="I6" t="n">
-        <v>132878.017328492</v>
+        <v>132780.5582025196</v>
       </c>
       <c r="J6" t="n">
-        <v>-43545.20186410214</v>
+        <v>-43642.66099007323</v>
       </c>
       <c r="K6" t="n">
-        <v>76175.40737485845</v>
+        <v>76156.91363692415</v>
       </c>
       <c r="L6" t="n">
-        <v>107058.229791378</v>
+        <v>107058.2297913772</v>
       </c>
       <c r="M6" t="n">
-        <v>-17399.8786415933</v>
+        <v>-17399.87864159324</v>
       </c>
       <c r="N6" t="n">
-        <v>117401.136592244</v>
+        <v>117401.1365922441</v>
       </c>
       <c r="O6" t="n">
         <v>117401.136592244</v>
       </c>
       <c r="P6" t="n">
-        <v>-64771.05663232836</v>
+        <v>73238.53128939825</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,46 +26738,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010839</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750869</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,19 +26975,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.880829765469002e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.394295139198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>64.70591564614294</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>85.98948845797281</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2476790765412</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>187.6303531607511</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>29.8731352011352</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>206.7455608741139</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>139.1633970972478</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>29.2340038428986</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>180.6276475859969</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>297.6446854318424</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>10.41232689841991</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>99.8571142865366</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.074784788419493e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.294324647460598e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855677</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.494702748639866e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058693</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
         <v>528.689756130333</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>321.8721269178609</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594841</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315253</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686883</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349123</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.502597509196</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502078</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>537.6668875336992</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564863</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
